--- a/MountAngle_v_MaxZPos to percieve Obj data.xlsx
+++ b/MountAngle_v_MaxZPos to percieve Obj data.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B100"/>
+      <selection sqref="A1:B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -349,799 +349,4487 @@
         <v>-14</v>
       </c>
       <c r="B1">
-        <v>1.0149999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-13.717171717171718</v>
+        <v>-13.95</v>
       </c>
       <c r="B2">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-13.434343434343434</v>
+        <v>-13.9</v>
       </c>
       <c r="B3">
-        <v>0.99999999999999989</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-13.151515151515152</v>
+        <v>-13.85</v>
       </c>
       <c r="B4">
-        <v>0.98999999999999988</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-12.868686868686869</v>
+        <v>-13.8</v>
       </c>
       <c r="B5">
-        <v>0.98499999999999988</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-12.585858585858587</v>
+        <v>-13.75</v>
       </c>
       <c r="B6">
-        <v>0.97499999999999987</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-12.303030303030303</v>
+        <v>-13.7</v>
       </c>
       <c r="B7">
-        <v>0.96499999999999997</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-12.020202020202021</v>
+        <v>-13.65</v>
       </c>
       <c r="B8">
-        <v>0.95999999999999985</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-11.737373737373737</v>
+        <v>-13.6</v>
       </c>
       <c r="B9">
-        <v>0.94999999999999984</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-11.454545454545455</v>
+        <v>-13.55</v>
       </c>
       <c r="B10">
-        <v>0.94499999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-11.171717171717171</v>
+        <v>-13.5</v>
       </c>
       <c r="B11">
-        <v>0.93499999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-10.888888888888889</v>
+        <v>-13.45</v>
       </c>
       <c r="B12">
-        <v>0.92499999999999982</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-10.606060606060606</v>
+        <v>-13.4</v>
       </c>
       <c r="B13">
-        <v>0.91999999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-10.323232323232324</v>
+        <v>-13.35</v>
       </c>
       <c r="B14">
-        <v>0.90999999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-10.04040404040404</v>
+        <v>-13.3</v>
       </c>
       <c r="B15">
-        <v>0.90499999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-9.7575757575757578</v>
+        <v>-13.25</v>
       </c>
       <c r="B16">
-        <v>0.89499999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-9.474747474747474</v>
+        <v>-13.2</v>
       </c>
       <c r="B17">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-9.191919191919192</v>
+        <v>-13.15</v>
       </c>
       <c r="B18">
-        <v>0.87999999999999989</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-8.9090909090909101</v>
+        <v>-13.1</v>
       </c>
       <c r="B19">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-8.6262626262626263</v>
+        <v>-13.05</v>
       </c>
       <c r="B20">
-        <v>0.86499999999999988</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-8.3434343434343425</v>
+        <v>-13</v>
       </c>
       <c r="B21">
-        <v>0.85499999999999987</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-8.0606060606060606</v>
+        <v>-12.95</v>
       </c>
       <c r="B22">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-7.7777777777777777</v>
+        <v>-12.9</v>
       </c>
       <c r="B23">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-7.4949494949494948</v>
+        <v>-12.85</v>
       </c>
       <c r="B24">
-        <v>0.83499999999999985</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>-7.2121212121212119</v>
+        <v>-12.8</v>
       </c>
       <c r="B25">
-        <v>0.82499999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-6.9292929292929291</v>
+        <v>-12.75</v>
       </c>
       <c r="B26">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>-6.6464646464646462</v>
+        <v>-12.7</v>
       </c>
       <c r="B27">
-        <v>0.80999999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-6.3636363636363633</v>
+        <v>-12.65</v>
       </c>
       <c r="B28">
-        <v>0.80499999999999983</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-6.0808080808080804</v>
+        <v>-12.6</v>
       </c>
       <c r="B29">
-        <v>0.79499999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-5.7979797979797976</v>
+        <v>-12.55</v>
       </c>
       <c r="B30">
-        <v>0.78999999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-5.5151515151515156</v>
+        <v>-12.5</v>
       </c>
       <c r="B31">
-        <v>0.77999999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-5.2323232323232318</v>
+        <v>-12.45</v>
       </c>
       <c r="B32">
-        <v>0.77500000000000002</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-4.9494949494949498</v>
+        <v>-12.4</v>
       </c>
       <c r="B33">
-        <v>0.76999999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-4.6666666666666661</v>
+        <v>-12.35</v>
       </c>
       <c r="B34">
-        <v>0.7599999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>-4.3838383838383841</v>
+        <v>-12.3</v>
       </c>
       <c r="B35">
-        <v>0.75499999999999989</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-4.1010101010101003</v>
+        <v>-12.25</v>
       </c>
       <c r="B36">
-        <v>0.745</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>-3.8181818181818183</v>
+        <v>-12.2</v>
       </c>
       <c r="B37">
-        <v>0.73999999999999988</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>-3.5353535353535346</v>
+        <v>-12.15</v>
       </c>
       <c r="B38">
-        <v>0.72999999999999987</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>-3.2525252525252526</v>
+        <v>-12.1</v>
       </c>
       <c r="B39">
-        <v>0.72499999999999998</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>-2.9696969696969688</v>
+        <v>-12.05</v>
       </c>
       <c r="B40">
-        <v>0.71499999999999997</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>-2.6868686868686869</v>
+        <v>-12</v>
       </c>
       <c r="B41">
-        <v>0.70999999999999985</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>-2.4040404040404049</v>
+        <v>-11.95</v>
       </c>
       <c r="B42">
-        <v>0.70499999999999985</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>-2.1212121212121211</v>
+        <v>-11.9</v>
       </c>
       <c r="B43">
-        <v>0.69499999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>-1.8383838383838391</v>
+        <v>-11.85</v>
       </c>
       <c r="B44">
-        <v>0.69</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>-1.5555555555555554</v>
+        <v>-11.8</v>
       </c>
       <c r="B45">
-        <v>0.67999999999999983</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>-1.2727272727272734</v>
+        <v>-11.75</v>
       </c>
       <c r="B46">
-        <v>0.67499999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>-0.98989898989898961</v>
+        <v>-11.7</v>
       </c>
       <c r="B47">
-        <v>0.66999999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>-0.70707070707070763</v>
+        <v>-11.65</v>
       </c>
       <c r="B48">
-        <v>0.65999999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-0.42424242424242387</v>
+        <v>-11.6</v>
       </c>
       <c r="B49">
-        <v>0.65499999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-0.14141414141414188</v>
+        <v>-11.55</v>
       </c>
       <c r="B50">
-        <v>0.64499999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.14141414141414188</v>
+        <v>-11.5</v>
       </c>
       <c r="B51">
-        <v>0.6399999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.42424242424242387</v>
+        <v>-11.45</v>
       </c>
       <c r="B52">
-        <v>0.63500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.70707070707070763</v>
+        <v>-11.4</v>
       </c>
       <c r="B53">
-        <v>0.62499999999999989</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.98989898989898961</v>
+        <v>-11.35</v>
       </c>
       <c r="B54">
-        <v>0.62</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1.2727272727272734</v>
+        <v>-11.3</v>
       </c>
       <c r="B55">
-        <v>0.61499999999999988</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1.5555555555555554</v>
+        <v>-11.25</v>
       </c>
       <c r="B56">
-        <v>0.60499999999999998</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1.8383838383838391</v>
+        <v>-11.2</v>
       </c>
       <c r="B57">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2.1212121212121211</v>
+        <v>-11.15</v>
       </c>
       <c r="B58">
-        <v>0.59</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2.4040404040404049</v>
+        <v>-11.1</v>
       </c>
       <c r="B59">
-        <v>0.58499999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2.6868686868686886</v>
+        <v>-11.05</v>
       </c>
       <c r="B60">
-        <v>0.57999999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2.9696969696969688</v>
+        <v>-11</v>
       </c>
       <c r="B61">
-        <v>0.56999999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>3.2525252525252526</v>
+        <v>-10.95</v>
       </c>
       <c r="B62">
-        <v>0.56499999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>3.5353535353535364</v>
+        <v>-10.9</v>
       </c>
       <c r="B63">
-        <v>0.55999999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>3.8181818181818166</v>
+        <v>-10.85</v>
       </c>
       <c r="B64">
-        <v>0.54999999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>4.1010101010101003</v>
+        <v>-10.8</v>
       </c>
       <c r="B65">
-        <v>0.54499999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>4.3838383838383841</v>
+        <v>-10.75</v>
       </c>
       <c r="B66">
-        <v>0.53999999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>4.6666666666666679</v>
+        <v>-10.7</v>
       </c>
       <c r="B67">
-        <v>0.52999999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>4.9494949494949481</v>
+        <v>-10.65</v>
       </c>
       <c r="B68">
-        <v>0.52499999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>5.2323232323232318</v>
+        <v>-10.6</v>
       </c>
       <c r="B69">
-        <v>0.52</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5.5151515151515156</v>
+        <v>-10.55</v>
       </c>
       <c r="B70">
-        <v>0.51</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>5.7979797979797993</v>
+        <v>-10.5</v>
       </c>
       <c r="B71">
-        <v>0.505</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>6.0808080808080796</v>
+        <v>-10.45</v>
       </c>
       <c r="B72">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>6.3636363636363633</v>
+        <v>-10.4</v>
       </c>
       <c r="B73">
-        <v>0.49</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>6.6464646464646471</v>
+        <v>-10.35</v>
       </c>
       <c r="B74">
-        <v>0.48499999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>6.9292929292929308</v>
+        <v>-10.3</v>
       </c>
       <c r="B75">
-        <v>0.48</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>7.212121212121211</v>
+        <v>-10.25</v>
       </c>
       <c r="B76">
-        <v>0.47</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>7.4949494949494948</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="B77">
-        <v>0.46499999999999997</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>7.7777777777777786</v>
+        <v>-10.15</v>
       </c>
       <c r="B78">
-        <v>0.45999999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>8.0606060606060623</v>
+        <v>-10.1</v>
       </c>
       <c r="B79">
-        <v>0.44999999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8.3434343434343425</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="B80">
-        <v>0.44499999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>8.6262626262626263</v>
+        <v>-10</v>
       </c>
       <c r="B81">
-        <v>0.43999999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>8.9090909090909101</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="B82">
-        <v>0.42999999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9.1919191919191903</v>
+        <v>-9.9</v>
       </c>
       <c r="B83">
-        <v>0.42500000000000004</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9.474747474747474</v>
+        <v>-9.85</v>
       </c>
       <c r="B84">
-        <v>0.41999999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9.7575757575757578</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="B85">
-        <v>0.41000000000000003</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>10.040404040404042</v>
+        <v>-9.75</v>
       </c>
       <c r="B86">
-        <v>0.40499999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>10.323232323232322</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="B87">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>10.606060606060606</v>
+        <v>-9.65</v>
       </c>
       <c r="B88">
-        <v>0.3899999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>10.888888888888889</v>
+        <v>-9.6</v>
       </c>
       <c r="B89">
-        <v>0.38500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>11.171717171717173</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="B90">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>11.454545454545453</v>
+        <v>-9.5</v>
       </c>
       <c r="B91">
-        <v>0.37</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>11.737373737373737</v>
+        <v>-9.4499999999999993</v>
       </c>
       <c r="B92">
-        <v>0.36499999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>12.020202020202021</v>
+        <v>-9.4</v>
       </c>
       <c r="B93">
-        <v>0.35499999999999998</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>12.303030303030305</v>
+        <v>-9.35</v>
       </c>
       <c r="B94">
-        <v>0.35</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>12.585858585858585</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="B95">
-        <v>0.33999999999999997</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>12.868686868686869</v>
+        <v>-9.25</v>
       </c>
       <c r="B96">
-        <v>0.32999999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>13.151515151515152</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="B97">
-        <v>0.32499999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>13.434343434343436</v>
+        <v>-9.15</v>
       </c>
       <c r="B98">
-        <v>0.31499999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>13.717171717171716</v>
+        <v>-9.1</v>
       </c>
       <c r="B99">
-        <v>0.30499999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
+        <v>-9.0500000000000007</v>
+      </c>
+      <c r="B100">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>-9</v>
+      </c>
+      <c r="B101">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>-8.9499999999999993</v>
+      </c>
+      <c r="B102">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-8.9</v>
+      </c>
+      <c r="B103">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>-8.85</v>
+      </c>
+      <c r="B104">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="B105">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>-8.75</v>
+      </c>
+      <c r="B106">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="B107">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>-8.65</v>
+      </c>
+      <c r="B108">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>-8.6</v>
+      </c>
+      <c r="B109">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>-8.5500000000000007</v>
+      </c>
+      <c r="B110">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>-8.5</v>
+      </c>
+      <c r="B111">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="B112">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>-8.4</v>
+      </c>
+      <c r="B113">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>-8.35</v>
+      </c>
+      <c r="B114">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="B115">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>-8.25</v>
+      </c>
+      <c r="B116">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="B117">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>-8.15</v>
+      </c>
+      <c r="B118">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>-8.1</v>
+      </c>
+      <c r="B119">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="B120">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>-8</v>
+      </c>
+      <c r="B121">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>-7.95</v>
+      </c>
+      <c r="B122">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>-7.9</v>
+      </c>
+      <c r="B123">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>-7.85</v>
+      </c>
+      <c r="B124">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>-7.8</v>
+      </c>
+      <c r="B125">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>-7.75</v>
+      </c>
+      <c r="B126">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>-7.7</v>
+      </c>
+      <c r="B127">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>-7.65</v>
+      </c>
+      <c r="B128">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>-7.6</v>
+      </c>
+      <c r="B129">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>-7.55</v>
+      </c>
+      <c r="B130">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>-7.5</v>
+      </c>
+      <c r="B131">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>-7.45</v>
+      </c>
+      <c r="B132">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>-7.4</v>
+      </c>
+      <c r="B133">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>-7.35</v>
+      </c>
+      <c r="B134">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>-7.3</v>
+      </c>
+      <c r="B135">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>-7.25</v>
+      </c>
+      <c r="B136">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>-7.2</v>
+      </c>
+      <c r="B137">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>-7.15</v>
+      </c>
+      <c r="B138">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>-7.1</v>
+      </c>
+      <c r="B139">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>-7.05</v>
+      </c>
+      <c r="B140">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>-7</v>
+      </c>
+      <c r="B141">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>-6.95</v>
+      </c>
+      <c r="B142">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>-6.9</v>
+      </c>
+      <c r="B143">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>-6.85</v>
+      </c>
+      <c r="B144">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>-6.8</v>
+      </c>
+      <c r="B145">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>-6.75</v>
+      </c>
+      <c r="B146">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>-6.7</v>
+      </c>
+      <c r="B147">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>-6.65</v>
+      </c>
+      <c r="B148">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>-6.6</v>
+      </c>
+      <c r="B149">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>-6.55</v>
+      </c>
+      <c r="B150">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>-6.5</v>
+      </c>
+      <c r="B151">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>-6.45</v>
+      </c>
+      <c r="B152">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>-6.4</v>
+      </c>
+      <c r="B153">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>-6.35</v>
+      </c>
+      <c r="B154">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>-6.3</v>
+      </c>
+      <c r="B155">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>-6.25</v>
+      </c>
+      <c r="B156">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>-6.2</v>
+      </c>
+      <c r="B157">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>-6.15</v>
+      </c>
+      <c r="B158">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>-6.1</v>
+      </c>
+      <c r="B159">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>-6.05</v>
+      </c>
+      <c r="B160">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>-6</v>
+      </c>
+      <c r="B161">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>-5.9499999999999993</v>
+      </c>
+      <c r="B162">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>-5.9</v>
+      </c>
+      <c r="B163">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>-5.85</v>
+      </c>
+      <c r="B164">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>-5.8000000000000007</v>
+      </c>
+      <c r="B165">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>-5.75</v>
+      </c>
+      <c r="B166">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>-5.6999999999999993</v>
+      </c>
+      <c r="B167">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>-5.65</v>
+      </c>
+      <c r="B168">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>-5.6</v>
+      </c>
+      <c r="B169">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>-5.5500000000000007</v>
+      </c>
+      <c r="B170">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>-5.5</v>
+      </c>
+      <c r="B171">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>-5.4499999999999993</v>
+      </c>
+      <c r="B172">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>-5.4</v>
+      </c>
+      <c r="B173">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>-5.35</v>
+      </c>
+      <c r="B174">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>-5.3000000000000007</v>
+      </c>
+      <c r="B175">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>-5.25</v>
+      </c>
+      <c r="B176">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>-5.1999999999999993</v>
+      </c>
+      <c r="B177">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>-5.15</v>
+      </c>
+      <c r="B178">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="B179">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>-5.0500000000000007</v>
+      </c>
+      <c r="B180">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>-5</v>
+      </c>
+      <c r="B181">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>-4.9499999999999993</v>
+      </c>
+      <c r="B182">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="B183">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="B184">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>-4.8000000000000007</v>
+      </c>
+      <c r="B185">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>-4.75</v>
+      </c>
+      <c r="B186">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>-4.6999999999999993</v>
+      </c>
+      <c r="B187">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="B188">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B189">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>-4.5500000000000007</v>
+      </c>
+      <c r="B190">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>-4.5</v>
+      </c>
+      <c r="B191">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>-4.4499999999999993</v>
+      </c>
+      <c r="B192">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B193">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>-4.3499999999999996</v>
+      </c>
+      <c r="B194">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>-4.3000000000000007</v>
+      </c>
+      <c r="B195">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>-4.25</v>
+      </c>
+      <c r="B196">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="B197">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="B198">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="B199">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>-4.0500000000000007</v>
+      </c>
+      <c r="B200">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>-4</v>
+      </c>
+      <c r="B201">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>-3.9499999999999993</v>
+      </c>
+      <c r="B202">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>-3.9000000000000004</v>
+      </c>
+      <c r="B203">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>-3.8499999999999996</v>
+      </c>
+      <c r="B204">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>-3.8000000000000007</v>
+      </c>
+      <c r="B205">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>-3.75</v>
+      </c>
+      <c r="B206">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>-3.6999999999999993</v>
+      </c>
+      <c r="B207">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>-3.6500000000000004</v>
+      </c>
+      <c r="B208">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>-3.5999999999999996</v>
+      </c>
+      <c r="B209">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>-3.5500000000000007</v>
+      </c>
+      <c r="B210">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>-3.5</v>
+      </c>
+      <c r="B211">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>-3.4499999999999993</v>
+      </c>
+      <c r="B212">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>-3.4000000000000004</v>
+      </c>
+      <c r="B213">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>-3.3499999999999996</v>
+      </c>
+      <c r="B214">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>-3.3000000000000007</v>
+      </c>
+      <c r="B215">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>-3.25</v>
+      </c>
+      <c r="B216">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>-3.1999999999999993</v>
+      </c>
+      <c r="B217">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>-3.1500000000000004</v>
+      </c>
+      <c r="B218">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>-3.0999999999999996</v>
+      </c>
+      <c r="B219">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>-3.0500000000000007</v>
+      </c>
+      <c r="B220">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>-3</v>
+      </c>
+      <c r="B221">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>-2.9499999999999993</v>
+      </c>
+      <c r="B222">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>-2.9000000000000004</v>
+      </c>
+      <c r="B223">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>-2.8499999999999996</v>
+      </c>
+      <c r="B224">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>-2.8000000000000007</v>
+      </c>
+      <c r="B225">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>-2.75</v>
+      </c>
+      <c r="B226">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>-2.6999999999999993</v>
+      </c>
+      <c r="B227">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>-2.6500000000000004</v>
+      </c>
+      <c r="B228">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>-2.5999999999999996</v>
+      </c>
+      <c r="B229">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>-2.5500000000000007</v>
+      </c>
+      <c r="B230">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>-2.5</v>
+      </c>
+      <c r="B231">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>-2.4499999999999993</v>
+      </c>
+      <c r="B232">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="B233">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>-2.3499999999999996</v>
+      </c>
+      <c r="B234">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>-2.3000000000000007</v>
+      </c>
+      <c r="B235">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>-2.25</v>
+      </c>
+      <c r="B236">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>-2.1999999999999993</v>
+      </c>
+      <c r="B237">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>-2.1500000000000004</v>
+      </c>
+      <c r="B238">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>-2.0999999999999996</v>
+      </c>
+      <c r="B239">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>-2.0500000000000007</v>
+      </c>
+      <c r="B240">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>-2</v>
+      </c>
+      <c r="B241">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="B242">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>-1.9000000000000004</v>
+      </c>
+      <c r="B243">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>-1.8499999999999996</v>
+      </c>
+      <c r="B244">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>-1.8000000000000007</v>
+      </c>
+      <c r="B245">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>-1.75</v>
+      </c>
+      <c r="B246">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>-1.6999999999999993</v>
+      </c>
+      <c r="B247">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>-1.6500000000000004</v>
+      </c>
+      <c r="B248">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>-1.5999999999999996</v>
+      </c>
+      <c r="B249">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>-1.5500000000000007</v>
+      </c>
+      <c r="B250">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>-1.5</v>
+      </c>
+      <c r="B251">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>-1.4499999999999993</v>
+      </c>
+      <c r="B252">
+        <v>1.0459999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>-1.4000000000000004</v>
+      </c>
+      <c r="B253">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>-1.3499999999999996</v>
+      </c>
+      <c r="B254">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="B255">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>-1.25</v>
+      </c>
+      <c r="B256">
+        <v>1.0379999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>-1.1999999999999993</v>
+      </c>
+      <c r="B257">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>-1.1500000000000004</v>
+      </c>
+      <c r="B258">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>-1.0999999999999996</v>
+      </c>
+      <c r="B259">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>-1.0500000000000007</v>
+      </c>
+      <c r="B260">
+        <v>1.0279999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>-1</v>
+      </c>
+      <c r="B261">
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>-0.94999999999999929</v>
+      </c>
+      <c r="B262">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="B263">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>-0.84999999999999964</v>
+      </c>
+      <c r="B264">
+        <v>1.0179999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="B265">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>-0.75</v>
+      </c>
+      <c r="B266">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="B267">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>-0.65000000000000036</v>
+      </c>
+      <c r="B268">
+        <v>1.0079999999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="B269">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>-0.55000000000000071</v>
+      </c>
+      <c r="B270">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>-0.5</v>
+      </c>
+      <c r="B271">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>-0.44999999999999929</v>
+      </c>
+      <c r="B272">
+        <v>0.99799999999999978</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="B273">
+        <v>0.99599999999999989</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>-0.34999999999999964</v>
+      </c>
+      <c r="B274">
+        <v>0.99399999999999988</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="B275">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>-0.25</v>
+      </c>
+      <c r="B276">
+        <v>0.98999999999999988</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="B277">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="B278">
+        <v>0.98399999999999987</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="B279">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="B280">
+        <v>0.97999999999999987</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>0.97799999999999987</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="B282">
+        <v>0.97399999999999987</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="B283">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="B284">
+        <v>0.96999999999999986</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="B285">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0.25</v>
+      </c>
+      <c r="B286">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="B287">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="B288">
+        <v>0.95999999999999985</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="B289">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0.44999999999999929</v>
+      </c>
+      <c r="B290">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0.5</v>
+      </c>
+      <c r="B291">
+        <v>0.95399999999999985</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="B292">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="B293">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0.65000000000000036</v>
+      </c>
+      <c r="B294">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="B295">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0.75</v>
+      </c>
+      <c r="B296">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="B297">
+        <v>0.93999999999999984</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="B298">
+        <v>0.93599999999999994</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="B299">
+        <v>0.93399999999999994</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0.94999999999999929</v>
+      </c>
+      <c r="B300">
+        <v>0.93199999999999994</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301">
+        <v>0.92999999999999983</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="B302">
+        <v>0.92799999999999994</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="B303">
+        <v>0.92599999999999993</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="B304">
+        <v>0.92199999999999993</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="B305">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>1.25</v>
+      </c>
+      <c r="B306">
+        <v>0.91799999999999993</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="B307">
+        <v>0.91599999999999993</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>1.3499999999999996</v>
+      </c>
+      <c r="B308">
+        <v>0.91399999999999992</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="B309">
+        <v>0.90999999999999992</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>1.4499999999999993</v>
+      </c>
+      <c r="B310">
+        <v>0.90799999999999992</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>1.5</v>
+      </c>
+      <c r="B311">
+        <v>0.90599999999999992</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="B312">
+        <v>0.90399999999999991</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="B313">
+        <v>0.90199999999999991</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="B314">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="B315">
+        <v>0.89599999999999991</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>1.75</v>
+      </c>
+      <c r="B316">
+        <v>0.89399999999999991</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="B317">
+        <v>0.8919999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1.8499999999999996</v>
+      </c>
+      <c r="B318">
+        <v>0.8899999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="B319">
+        <v>0.8879999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>1.9499999999999993</v>
+      </c>
+      <c r="B320">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="B321">
+        <v>0.8819999999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>2.0500000000000007</v>
+      </c>
+      <c r="B322">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="B323">
+        <v>0.87799999999999989</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>2.1499999999999986</v>
+      </c>
+      <c r="B324">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="B325">
+        <v>0.87399999999999989</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>2.25</v>
+      </c>
+      <c r="B326">
+        <v>0.87199999999999989</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="B327">
+        <v>0.86799999999999988</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>2.3500000000000014</v>
+      </c>
+      <c r="B328">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="B329">
+        <v>0.86399999999999988</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>2.4499999999999993</v>
+      </c>
+      <c r="B330">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>2.5</v>
+      </c>
+      <c r="B331">
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>2.5500000000000007</v>
+      </c>
+      <c r="B332">
+        <v>0.85799999999999987</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>2.6000000000000014</v>
+      </c>
+      <c r="B333">
+        <v>0.85399999999999987</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>2.6499999999999986</v>
+      </c>
+      <c r="B334">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="B335">
+        <v>0.84999999999999987</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>2.75</v>
+      </c>
+      <c r="B336">
+        <v>0.84799999999999986</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="B337">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>2.8500000000000014</v>
+      </c>
+      <c r="B338">
+        <v>0.84399999999999986</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>2.8999999999999986</v>
+      </c>
+      <c r="B339">
+        <v>0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>2.9499999999999993</v>
+      </c>
+      <c r="B340">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>3</v>
+      </c>
+      <c r="B341">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>3.0500000000000007</v>
+      </c>
+      <c r="B342">
+        <v>0.83399999999999985</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="B343">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>3.1499999999999986</v>
+      </c>
+      <c r="B344">
+        <v>0.82999999999999985</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="B345">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>3.25</v>
+      </c>
+      <c r="B346">
+        <v>0.82399999999999984</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="B347">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>3.3500000000000014</v>
+      </c>
+      <c r="B348">
+        <v>0.81999999999999984</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>3.3999999999999986</v>
+      </c>
+      <c r="B349">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="B350">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>3.5</v>
+      </c>
+      <c r="B351">
+        <v>0.81199999999999994</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="B352">
+        <v>0.80999999999999983</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="B353">
+        <v>0.80799999999999994</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>3.6499999999999986</v>
+      </c>
+      <c r="B354">
+        <v>0.80599999999999994</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="B355">
+        <v>0.80399999999999994</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>3.75</v>
+      </c>
+      <c r="B356">
+        <v>0.80199999999999994</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="B357">
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>3.8500000000000014</v>
+      </c>
+      <c r="B358">
+        <v>0.79599999999999993</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>3.8999999999999986</v>
+      </c>
+      <c r="B359">
+        <v>0.79399999999999993</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>3.9499999999999993</v>
+      </c>
+      <c r="B360">
+        <v>0.79199999999999993</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>4</v>
+      </c>
+      <c r="B361">
+        <v>0.78999999999999992</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="B362">
+        <v>0.78799999999999992</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="B363">
+        <v>0.78599999999999992</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>4.1499999999999986</v>
+      </c>
+      <c r="B364">
+        <v>0.78199999999999992</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="B365">
+        <v>0.77999999999999992</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>4.25</v>
+      </c>
+      <c r="B366">
+        <v>0.77799999999999991</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="B367">
+        <v>0.77599999999999991</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="B368">
+        <v>0.77399999999999991</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="B369">
+        <v>0.77199999999999991</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>4.4499999999999993</v>
+      </c>
+      <c r="B370">
+        <v>0.7679999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>4.5</v>
+      </c>
+      <c r="B371">
+        <v>0.7659999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="B372">
+        <v>0.7639999999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="B373">
+        <v>0.7619999999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>4.6499999999999986</v>
+      </c>
+      <c r="B374">
+        <v>0.7599999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="B375">
+        <v>0.7579999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>4.75</v>
+      </c>
+      <c r="B376">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="B377">
+        <v>0.75199999999999989</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>4.8500000000000014</v>
+      </c>
+      <c r="B378">
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="B379">
+        <v>0.74799999999999989</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="B380">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>5</v>
+      </c>
+      <c r="B381">
+        <v>0.74399999999999988</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="B382">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="B383">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>5.1499999999999986</v>
+      </c>
+      <c r="B384">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="B385">
+        <v>0.73399999999999987</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>5.25</v>
+      </c>
+      <c r="B386">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="B387">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>5.3500000000000014</v>
+      </c>
+      <c r="B388">
+        <v>0.72799999999999987</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="B389">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>5.4499999999999993</v>
+      </c>
+      <c r="B390">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>5.5</v>
+      </c>
+      <c r="B391">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="B392">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="B393">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>5.6499999999999986</v>
+      </c>
+      <c r="B394">
+        <v>0.71399999999999986</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="B395">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>5.75</v>
+      </c>
+      <c r="B396">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="B397">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>5.8500000000000014</v>
+      </c>
+      <c r="B398">
+        <v>0.70399999999999985</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>5.8999999999999986</v>
+      </c>
+      <c r="B399">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="B400">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>6</v>
+      </c>
+      <c r="B401">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>6.0500000000000007</v>
+      </c>
+      <c r="B402">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="B403">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>6.1499999999999986</v>
+      </c>
+      <c r="B404">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="B405">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>6.25</v>
+      </c>
+      <c r="B406">
+        <v>0.68599999999999994</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="B407">
+        <v>0.68399999999999994</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>6.3500000000000014</v>
+      </c>
+      <c r="B408">
+        <v>0.68199999999999994</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="B409">
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>6.4499999999999993</v>
+      </c>
+      <c r="B410">
+        <v>0.67799999999999994</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>6.5</v>
+      </c>
+      <c r="B411">
+        <v>0.67399999999999993</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>6.5500000000000007</v>
+      </c>
+      <c r="B412">
+        <v>0.67199999999999993</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="B413">
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>6.6499999999999986</v>
+      </c>
+      <c r="B414">
+        <v>0.66799999999999993</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="B415">
+        <v>0.66599999999999993</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>6.75</v>
+      </c>
+      <c r="B416">
+        <v>0.66399999999999992</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="B417">
+        <v>0.66199999999999992</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>6.8500000000000014</v>
+      </c>
+      <c r="B418">
+        <v>0.65799999999999992</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="B419">
+        <v>0.65599999999999992</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="B420">
+        <v>0.65399999999999991</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>7</v>
+      </c>
+      <c r="B421">
+        <v>0.65199999999999991</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="B422">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="B423">
+        <v>0.64799999999999991</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>7.1499999999999986</v>
+      </c>
+      <c r="B424">
+        <v>0.64599999999999991</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="B425">
+        <v>0.6419999999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>7.25</v>
+      </c>
+      <c r="B426">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="B427">
+        <v>0.6379999999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="B428">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="B429">
+        <v>0.6339999999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>7.4499999999999993</v>
+      </c>
+      <c r="B430">
+        <v>0.6319999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>7.5</v>
+      </c>
+      <c r="B431">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>7.5500000000000007</v>
+      </c>
+      <c r="B432">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="B433">
+        <v>0.62399999999999989</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>7.6499999999999986</v>
+      </c>
+      <c r="B434">
+        <v>0.62199999999999989</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="B435">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>7.75</v>
+      </c>
+      <c r="B436">
+        <v>0.61799999999999988</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="B437">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>7.8500000000000014</v>
+      </c>
+      <c r="B438">
+        <v>0.61399999999999988</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="B439">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>7.9499999999999993</v>
+      </c>
+      <c r="B440">
+        <v>0.60799999999999987</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>8</v>
+      </c>
+      <c r="B441">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="B442">
+        <v>0.60399999999999987</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="B443">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>8.1499999999999986</v>
+      </c>
+      <c r="B444">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B445">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>8.25</v>
+      </c>
+      <c r="B446">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B447">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>8.3500000000000014</v>
+      </c>
+      <c r="B448">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="B449">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="B450">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>8.5</v>
+      </c>
+      <c r="B451">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="B452">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="B453">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="B454">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B455">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>8.75</v>
+      </c>
+      <c r="B456">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B457">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>8.8500000000000014</v>
+      </c>
+      <c r="B458">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="B459">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="B460">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>9</v>
+      </c>
+      <c r="B461">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="B462">
+        <v>0.55799999999999994</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="B463">
+        <v>0.55599999999999994</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>9.1499999999999986</v>
+      </c>
+      <c r="B464">
+        <v>0.55399999999999994</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B465">
+        <v>0.55199999999999994</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>9.25</v>
+      </c>
+      <c r="B466">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B467">
+        <v>0.54799999999999993</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="B468">
+        <v>0.54399999999999993</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="B469">
+        <v>0.54199999999999993</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="B470">
+        <v>0.53999999999999992</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>9.5</v>
+      </c>
+      <c r="B471">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="B472">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="B473">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>9.6499999999999986</v>
+      </c>
+      <c r="B474">
+        <v>0.53199999999999992</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B475">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>9.75</v>
+      </c>
+      <c r="B476">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B477">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>9.8500000000000014</v>
+      </c>
+      <c r="B478">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="B479">
+        <v>0.51999999999999991</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="B480">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>10</v>
+      </c>
+      <c r="B481">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="B482">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="B483">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>10.149999999999999</v>
+      </c>
+      <c r="B484">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B485">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>10.25</v>
+      </c>
+      <c r="B486">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>10.3</v>
+      </c>
+      <c r="B487">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>10.350000000000001</v>
+      </c>
+      <c r="B488">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>10.399999999999999</v>
+      </c>
+      <c r="B489">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>10.45</v>
+      </c>
+      <c r="B490">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>10.5</v>
+      </c>
+      <c r="B491">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>10.55</v>
+      </c>
+      <c r="B492">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>10.600000000000001</v>
+      </c>
+      <c r="B493">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>10.649999999999999</v>
+      </c>
+      <c r="B494">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>10.7</v>
+      </c>
+      <c r="B495">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>10.75</v>
+      </c>
+      <c r="B496">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>10.8</v>
+      </c>
+      <c r="B497">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>10.850000000000001</v>
+      </c>
+      <c r="B498">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>10.899999999999999</v>
+      </c>
+      <c r="B499">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>10.95</v>
+      </c>
+      <c r="B500">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>11</v>
+      </c>
+      <c r="B501">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>11.05</v>
+      </c>
+      <c r="B502">
+        <v>0.46599999999999997</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>11.100000000000001</v>
+      </c>
+      <c r="B503">
+        <v>0.46399999999999997</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>11.149999999999999</v>
+      </c>
+      <c r="B504">
+        <v>0.46199999999999997</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>11.2</v>
+      </c>
+      <c r="B505">
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>11.25</v>
+      </c>
+      <c r="B506">
+        <v>0.45799999999999996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>11.3</v>
+      </c>
+      <c r="B507">
+        <v>0.45599999999999996</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>11.350000000000001</v>
+      </c>
+      <c r="B508">
+        <v>0.45199999999999996</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="B509">
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>11.45</v>
+      </c>
+      <c r="B510">
+        <v>0.44799999999999995</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>11.5</v>
+      </c>
+      <c r="B511">
+        <v>0.44599999999999995</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>11.55</v>
+      </c>
+      <c r="B512">
+        <v>0.44399999999999995</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="B513">
+        <v>0.44199999999999995</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>11.649999999999999</v>
+      </c>
+      <c r="B514">
+        <v>0.43799999999999994</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>11.7</v>
+      </c>
+      <c r="B515">
+        <v>0.43599999999999994</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>11.75</v>
+      </c>
+      <c r="B516">
+        <v>0.43399999999999994</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>11.8</v>
+      </c>
+      <c r="B517">
+        <v>0.43199999999999994</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>11.850000000000001</v>
+      </c>
+      <c r="B518">
+        <v>0.42999999999999994</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>11.899999999999999</v>
+      </c>
+      <c r="B519">
+        <v>0.42800000000000005</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>11.95</v>
+      </c>
+      <c r="B520">
+        <v>0.42399999999999993</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>12</v>
+      </c>
+      <c r="B521">
+        <v>0.42199999999999993</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>12.05</v>
+      </c>
+      <c r="B522">
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="B523">
+        <v>0.41800000000000004</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>12.149999999999999</v>
+      </c>
+      <c r="B524">
+        <v>0.41600000000000004</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>12.2</v>
+      </c>
+      <c r="B525">
+        <v>0.41199999999999992</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>12.25</v>
+      </c>
+      <c r="B526">
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>12.3</v>
+      </c>
+      <c r="B527">
+        <v>0.40800000000000003</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>12.350000000000001</v>
+      </c>
+      <c r="B528">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>12.399999999999999</v>
+      </c>
+      <c r="B529">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>12.45</v>
+      </c>
+      <c r="B530">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>12.5</v>
+      </c>
+      <c r="B531">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>12.55</v>
+      </c>
+      <c r="B532">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="B533">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>12.649999999999999</v>
+      </c>
+      <c r="B534">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>12.7</v>
+      </c>
+      <c r="B535">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>12.75</v>
+      </c>
+      <c r="B536">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>12.8</v>
+      </c>
+      <c r="B537">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>12.850000000000001</v>
+      </c>
+      <c r="B538">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>12.899999999999999</v>
+      </c>
+      <c r="B539">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>12.95</v>
+      </c>
+      <c r="B540">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>13</v>
+      </c>
+      <c r="B541">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>13.05</v>
+      </c>
+      <c r="B542">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>13.100000000000001</v>
+      </c>
+      <c r="B543">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>13.149999999999999</v>
+      </c>
+      <c r="B544">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>13.2</v>
+      </c>
+      <c r="B545">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>13.25</v>
+      </c>
+      <c r="B546">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>13.3</v>
+      </c>
+      <c r="B547">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>13.350000000000001</v>
+      </c>
+      <c r="B548">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>13.399999999999999</v>
+      </c>
+      <c r="B549">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>13.45</v>
+      </c>
+      <c r="B550">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>13.5</v>
+      </c>
+      <c r="B551">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>13.55</v>
+      </c>
+      <c r="B552">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="B553">
+        <v>0.34199999999999997</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>13.649999999999999</v>
+      </c>
+      <c r="B554">
+        <v>0.33799999999999997</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>13.7</v>
+      </c>
+      <c r="B555">
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>13.75</v>
+      </c>
+      <c r="B556">
+        <v>0.33199999999999996</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>13.8</v>
+      </c>
+      <c r="B557">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>13.850000000000001</v>
+      </c>
+      <c r="B558">
+        <v>0.32599999999999996</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>13.899999999999999</v>
+      </c>
+      <c r="B559">
+        <v>0.32199999999999995</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>13.95</v>
+      </c>
+      <c r="B560">
+        <v>0.31999999999999995</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
         <v>14</v>
       </c>
-      <c r="B100">
-        <v>0.29499999999999998</v>
+      <c r="B561">
+        <v>0.31599999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/MountAngle_v_MaxZPos to percieve Obj data.xlsx
+++ b/MountAngle_v_MaxZPos to percieve Obj data.xlsx
@@ -781,7 +781,7 @@
         <v>-11.3</v>
       </c>
       <c r="B55">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,7 +789,7 @@
         <v>-11.25</v>
       </c>
       <c r="B56">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>-11.2</v>
       </c>
       <c r="B57">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
         <v>-11.15</v>
       </c>
       <c r="B58">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +813,7 @@
         <v>-11.1</v>
       </c>
       <c r="B59">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>-11.05</v>
       </c>
       <c r="B60">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
         <v>-11</v>
       </c>
       <c r="B61">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>-10.95</v>
       </c>
       <c r="B62">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,7 +845,7 @@
         <v>-10.9</v>
       </c>
       <c r="B63">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>-10.85</v>
       </c>
       <c r="B64">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>-10.8</v>
       </c>
       <c r="B65">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
         <v>-10.75</v>
       </c>
       <c r="B66">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -877,7 +877,7 @@
         <v>-10.7</v>
       </c>
       <c r="B67">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>-10.65</v>
       </c>
       <c r="B68">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>-10.6</v>
       </c>
       <c r="B69">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
         <v>-10.55</v>
       </c>
       <c r="B70">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>-10.5</v>
       </c>
       <c r="B71">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
         <v>-10.45</v>
       </c>
       <c r="B72">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>-10.4</v>
       </c>
       <c r="B73">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>-10.35</v>
       </c>
       <c r="B74">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -941,7 +941,7 @@
         <v>-10.3</v>
       </c>
       <c r="B75">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -949,7 +949,7 @@
         <v>-10.25</v>
       </c>
       <c r="B76">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
         <v>-10.199999999999999</v>
       </c>
       <c r="B77">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -965,7 +965,7 @@
         <v>-10.15</v>
       </c>
       <c r="B78">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>-10.1</v>
       </c>
       <c r="B79">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,7 +981,7 @@
         <v>-10.050000000000001</v>
       </c>
       <c r="B80">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -989,7 +989,7 @@
         <v>-10</v>
       </c>
       <c r="B81">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>-9.9499999999999993</v>
       </c>
       <c r="B82">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1005,7 +1005,7 @@
         <v>-9.9</v>
       </c>
       <c r="B83">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>-9.85</v>
       </c>
       <c r="B84">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
         <v>-9.8000000000000007</v>
       </c>
       <c r="B85">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,7 @@
         <v>-9.75</v>
       </c>
       <c r="B86">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
         <v>-9.6999999999999993</v>
       </c>
       <c r="B87">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
         <v>-9.65</v>
       </c>
       <c r="B88">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>-9.6</v>
       </c>
       <c r="B89">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1061,7 @@
         <v>-9.5500000000000007</v>
       </c>
       <c r="B90">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>-9.5</v>
       </c>
       <c r="B91">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>-9.4499999999999993</v>
       </c>
       <c r="B92">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>-9.4</v>
       </c>
       <c r="B93">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
         <v>-9.35</v>
       </c>
       <c r="B94">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>-9.3000000000000007</v>
       </c>
       <c r="B95">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>-9.25</v>
       </c>
       <c r="B96">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>-9.1999999999999993</v>
       </c>
       <c r="B97">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>-9.15</v>
       </c>
       <c r="B98">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>-9.1</v>
       </c>
       <c r="B99">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
         <v>-9.0500000000000007</v>
       </c>
       <c r="B100">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>-9</v>
       </c>
       <c r="B101">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>-8.9499999999999993</v>
       </c>
       <c r="B102">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>-8.9</v>
       </c>
       <c r="B103">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>-8.85</v>
       </c>
       <c r="B104">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>-8.8000000000000007</v>
       </c>
       <c r="B105">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>-8.75</v>
       </c>
       <c r="B106">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>-8.6999999999999993</v>
       </c>
       <c r="B107">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>-8.65</v>
       </c>
       <c r="B108">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>-8.6</v>
       </c>
       <c r="B109">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>-8.5500000000000007</v>
       </c>
       <c r="B110">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>-8.5</v>
       </c>
       <c r="B111">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>-8.4499999999999993</v>
       </c>
       <c r="B112">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>-8.4</v>
       </c>
       <c r="B113">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>-8.35</v>
       </c>
       <c r="B114">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1261,7 +1261,7 @@
         <v>-8.3000000000000007</v>
       </c>
       <c r="B115">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1269,7 +1269,7 @@
         <v>-8.25</v>
       </c>
       <c r="B116">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="B117">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>-8.15</v>
       </c>
       <c r="B118">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>-8.1</v>
       </c>
       <c r="B119">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>-8.0500000000000007</v>
       </c>
       <c r="B120">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>-8</v>
       </c>
       <c r="B121">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>-7.95</v>
       </c>
       <c r="B122">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>-7.9</v>
       </c>
       <c r="B123">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>-7.85</v>
       </c>
       <c r="B124">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>-7.8</v>
       </c>
       <c r="B125">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>-7.75</v>
       </c>
       <c r="B126">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
         <v>-7.7</v>
       </c>
       <c r="B127">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>-7.65</v>
       </c>
       <c r="B128">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1373,7 +1373,7 @@
         <v>-7.6</v>
       </c>
       <c r="B129">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
         <v>-7.55</v>
       </c>
       <c r="B130">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>-7.5</v>
       </c>
       <c r="B131">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>-7.45</v>
       </c>
       <c r="B132">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>-7.4</v>
       </c>
       <c r="B133">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>-7.35</v>
       </c>
       <c r="B134">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>-7.3</v>
       </c>
       <c r="B135">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
         <v>-7.25</v>
       </c>
       <c r="B136">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
         <v>-7.2</v>
       </c>
       <c r="B137">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>-7.15</v>
       </c>
       <c r="B138">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
         <v>-7.1</v>
       </c>
       <c r="B139">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>-7.05</v>
       </c>
       <c r="B140">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>-7</v>
       </c>
       <c r="B141">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>-6.95</v>
       </c>
       <c r="B142">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
         <v>-6.9</v>
       </c>
       <c r="B143">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>-6.85</v>
       </c>
       <c r="B144">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>-6.8</v>
       </c>
       <c r="B145">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>-6.75</v>
       </c>
       <c r="B146">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>-6.7</v>
       </c>
       <c r="B147">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -1525,7 +1525,7 @@
         <v>-6.65</v>
       </c>
       <c r="B148">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1533,7 +1533,7 @@
         <v>-6.6</v>
       </c>
       <c r="B149">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -1541,7 +1541,7 @@
         <v>-6.55</v>
       </c>
       <c r="B150">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
         <v>-6.5</v>
       </c>
       <c r="B151">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
         <v>-6.45</v>
       </c>
       <c r="B152">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -1565,7 +1565,7 @@
         <v>-6.4</v>
       </c>
       <c r="B153">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>-6.35</v>
       </c>
       <c r="B154">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>-6.3</v>
       </c>
       <c r="B155">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
         <v>-6.25</v>
       </c>
       <c r="B156">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
         <v>-6.2</v>
       </c>
       <c r="B157">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -1605,7 +1605,7 @@
         <v>-6.15</v>
       </c>
       <c r="B158">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
         <v>-6.1</v>
       </c>
       <c r="B159">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>-6.05</v>
       </c>
       <c r="B160">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>-6</v>
       </c>
       <c r="B161">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -1637,7 +1637,7 @@
         <v>-5.9499999999999993</v>
       </c>
       <c r="B162">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -1645,7 +1645,7 @@
         <v>-5.9</v>
       </c>
       <c r="B163">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>-5.85</v>
       </c>
       <c r="B164">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -1661,7 +1661,7 @@
         <v>-5.8000000000000007</v>
       </c>
       <c r="B165">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
         <v>-5.75</v>
       </c>
       <c r="B166">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>-5.6999999999999993</v>
       </c>
       <c r="B167">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,7 +1685,7 @@
         <v>-5.65</v>
       </c>
       <c r="B168">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -1693,7 +1693,7 @@
         <v>-5.6</v>
       </c>
       <c r="B169">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -1701,7 +1701,7 @@
         <v>-5.5500000000000007</v>
       </c>
       <c r="B170">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>-5.5</v>
       </c>
       <c r="B171">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -1717,7 +1717,7 @@
         <v>-5.4499999999999993</v>
       </c>
       <c r="B172">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
         <v>-5.4</v>
       </c>
       <c r="B173">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>-5.35</v>
       </c>
       <c r="B174">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>-5.3000000000000007</v>
       </c>
       <c r="B175">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -1749,7 +1749,7 @@
         <v>-5.25</v>
       </c>
       <c r="B176">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>-5.1999999999999993</v>
       </c>
       <c r="B177">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>-5.15</v>
       </c>
       <c r="B178">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -1773,7 +1773,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="B179">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>-5.0500000000000007</v>
       </c>
       <c r="B180">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -1789,7 +1789,7 @@
         <v>-5</v>
       </c>
       <c r="B181">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -1797,7 +1797,7 @@
         <v>-4.9499999999999993</v>
       </c>
       <c r="B182">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -1805,7 +1805,7 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="B183">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,7 +1813,7 @@
         <v>-4.8499999999999996</v>
       </c>
       <c r="B184">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,7 +1821,7 @@
         <v>-4.8000000000000007</v>
       </c>
       <c r="B185">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
         <v>-4.75</v>
       </c>
       <c r="B186">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -1837,7 +1837,7 @@
         <v>-4.6999999999999993</v>
       </c>
       <c r="B187">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>-4.6500000000000004</v>
       </c>
       <c r="B188">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -1853,7 +1853,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="B189">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -1861,7 +1861,7 @@
         <v>-4.5500000000000007</v>
       </c>
       <c r="B190">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
         <v>-4.5</v>
       </c>
       <c r="B191">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
         <v>-4.4499999999999993</v>
       </c>
       <c r="B192">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="B193">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>-4.3499999999999996</v>
       </c>
       <c r="B194">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
         <v>-4.3000000000000007</v>
       </c>
       <c r="B195">
-        <v>1.05</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>-4.25</v>
       </c>
       <c r="B196">
-        <v>1.05</v>
+        <v>2.3919999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>-4.1999999999999993</v>
       </c>
       <c r="B197">
-        <v>1.05</v>
+        <v>2.3859999999999997</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
         <v>-4.1500000000000004</v>
       </c>
       <c r="B198">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="B199">
-        <v>1.05</v>
+        <v>2.3759999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
         <v>-4.0500000000000007</v>
       </c>
       <c r="B200">
-        <v>1.05</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>-4</v>
       </c>
       <c r="B201">
-        <v>1.05</v>
+        <v>2.3639999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>-3.9499999999999993</v>
       </c>
       <c r="B202">
-        <v>1.05</v>
+        <v>2.3580000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
         <v>-3.9000000000000004</v>
       </c>
       <c r="B203">
-        <v>1.05</v>
+        <v>2.3519999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +1973,7 @@
         <v>-3.8499999999999996</v>
       </c>
       <c r="B204">
-        <v>1.05</v>
+        <v>2.3459999999999996</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>-3.8000000000000007</v>
       </c>
       <c r="B205">
-        <v>1.05</v>
+        <v>2.3400000000000003</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>-3.75</v>
       </c>
       <c r="B206">
-        <v>1.05</v>
+        <v>2.3340000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -1997,7 +1997,7 @@
         <v>-3.6999999999999993</v>
       </c>
       <c r="B207">
-        <v>1.05</v>
+        <v>2.3279999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>-3.6500000000000004</v>
       </c>
       <c r="B208">
-        <v>1.05</v>
+        <v>2.3220000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -2013,7 +2013,7 @@
         <v>-3.5999999999999996</v>
       </c>
       <c r="B209">
-        <v>1.05</v>
+        <v>2.3159999999999998</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>-3.5500000000000007</v>
       </c>
       <c r="B210">
-        <v>1.05</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>-3.5</v>
       </c>
       <c r="B211">
-        <v>1.05</v>
+        <v>2.3039999999999998</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2037,7 +2037,7 @@
         <v>-3.4499999999999993</v>
       </c>
       <c r="B212">
-        <v>1.05</v>
+        <v>2.3000000000000003</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -2045,7 +2045,7 @@
         <v>-3.4000000000000004</v>
       </c>
       <c r="B213">
-        <v>1.05</v>
+        <v>2.294</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
         <v>-3.3499999999999996</v>
       </c>
       <c r="B214">
-        <v>1.05</v>
+        <v>2.2879999999999998</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>-3.3000000000000007</v>
       </c>
       <c r="B215">
-        <v>1.05</v>
+        <v>2.282</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2069,7 +2069,7 @@
         <v>-3.25</v>
       </c>
       <c r="B216">
-        <v>1.05</v>
+        <v>2.2759999999999998</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
         <v>-3.1999999999999993</v>
       </c>
       <c r="B217">
-        <v>1.05</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -2085,7 +2085,7 @@
         <v>-3.1500000000000004</v>
       </c>
       <c r="B218">
-        <v>1.05</v>
+        <v>2.2639999999999998</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,7 +2093,7 @@
         <v>-3.0999999999999996</v>
       </c>
       <c r="B219">
-        <v>1.05</v>
+        <v>2.258</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -2101,7 +2101,7 @@
         <v>-3.0500000000000007</v>
       </c>
       <c r="B220">
-        <v>1.05</v>
+        <v>2.2519999999999998</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>-3</v>
       </c>
       <c r="B221">
-        <v>1.05</v>
+        <v>2.2459999999999996</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
         <v>-2.9499999999999993</v>
       </c>
       <c r="B222">
-        <v>1.05</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
         <v>-2.9000000000000004</v>
       </c>
       <c r="B223">
-        <v>1.05</v>
+        <v>2.2359999999999998</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
         <v>-2.8499999999999996</v>
       </c>
       <c r="B224">
-        <v>1.05</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -2141,7 +2141,7 @@
         <v>-2.8000000000000007</v>
       </c>
       <c r="B225">
-        <v>1.05</v>
+        <v>2.2240000000000002</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -2149,7 +2149,7 @@
         <v>-2.75</v>
       </c>
       <c r="B226">
-        <v>1.05</v>
+        <v>2.218</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>-2.6999999999999993</v>
       </c>
       <c r="B227">
-        <v>1.05</v>
+        <v>2.2119999999999997</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -2165,7 +2165,7 @@
         <v>-2.6500000000000004</v>
       </c>
       <c r="B228">
-        <v>1.05</v>
+        <v>2.206</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -2173,7 +2173,7 @@
         <v>-2.5999999999999996</v>
       </c>
       <c r="B229">
-        <v>1.05</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -2181,7 +2181,7 @@
         <v>-2.5500000000000007</v>
       </c>
       <c r="B230">
-        <v>1.05</v>
+        <v>2.194</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -2189,7 +2189,7 @@
         <v>-2.5</v>
       </c>
       <c r="B231">
-        <v>1.05</v>
+        <v>2.1879999999999997</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -2197,7 +2197,7 @@
         <v>-2.4499999999999993</v>
       </c>
       <c r="B232">
-        <v>1.05</v>
+        <v>2.1840000000000002</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -2205,7 +2205,7 @@
         <v>-2.4000000000000004</v>
       </c>
       <c r="B233">
-        <v>1.05</v>
+        <v>2.1779999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
         <v>-2.3499999999999996</v>
       </c>
       <c r="B234">
-        <v>1.05</v>
+        <v>2.1719999999999997</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>-2.3000000000000007</v>
       </c>
       <c r="B235">
-        <v>1.05</v>
+        <v>2.1659999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>-2.25</v>
       </c>
       <c r="B236">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -2237,7 +2237,7 @@
         <v>-2.1999999999999993</v>
       </c>
       <c r="B237">
-        <v>1.05</v>
+        <v>2.1539999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
         <v>-2.1500000000000004</v>
       </c>
       <c r="B238">
-        <v>1.05</v>
+        <v>2.1480000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>-2.0999999999999996</v>
       </c>
       <c r="B239">
-        <v>1.05</v>
+        <v>2.1419999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -2261,7 +2261,7 @@
         <v>-2.0500000000000007</v>
       </c>
       <c r="B240">
-        <v>1.05</v>
+        <v>2.1379999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -2269,7 +2269,7 @@
         <v>-2</v>
       </c>
       <c r="B241">
-        <v>1.05</v>
+        <v>2.1319999999999997</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -2277,7 +2277,7 @@
         <v>-1.9499999999999993</v>
       </c>
       <c r="B242">
-        <v>1.05</v>
+        <v>2.1259999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -2285,7 +2285,7 @@
         <v>-1.9000000000000004</v>
       </c>
       <c r="B243">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
         <v>-1.8499999999999996</v>
       </c>
       <c r="B244">
-        <v>1.05</v>
+        <v>2.1139999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
         <v>-1.8000000000000007</v>
       </c>
       <c r="B245">
-        <v>1.05</v>
+        <v>2.1080000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -2309,7 +2309,7 @@
         <v>-1.75</v>
       </c>
       <c r="B246">
-        <v>1.05</v>
+        <v>2.1019999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -2317,7 +2317,7 @@
         <v>-1.6999999999999993</v>
       </c>
       <c r="B247">
-        <v>1.05</v>
+        <v>2.0979999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -2325,7 +2325,7 @@
         <v>-1.6500000000000004</v>
       </c>
       <c r="B248">
-        <v>1.05</v>
+        <v>2.0919999999999996</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>-1.5999999999999996</v>
       </c>
       <c r="B249">
-        <v>1.05</v>
+        <v>2.0859999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -2341,7 +2341,7 @@
         <v>-1.5500000000000007</v>
       </c>
       <c r="B250">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>-1.5</v>
       </c>
       <c r="B251">
-        <v>1.05</v>
+        <v>2.0739999999999998</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -2357,7 +2357,7 @@
         <v>-1.4499999999999993</v>
       </c>
       <c r="B252">
-        <v>1.0459999999999998</v>
+        <v>2.0679999999999996</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -2365,7 +2365,7 @@
         <v>-1.4000000000000004</v>
       </c>
       <c r="B253">
-        <v>1.044</v>
+        <v>2.0619999999999998</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>-1.3499999999999996</v>
       </c>
       <c r="B254">
-        <v>1.042</v>
+        <v>2.0579999999999998</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
         <v>-1.3000000000000007</v>
       </c>
       <c r="B255">
-        <v>1.04</v>
+        <v>2.0519999999999996</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -2389,7 +2389,7 @@
         <v>-1.25</v>
       </c>
       <c r="B256">
-        <v>1.0379999999999998</v>
+        <v>2.0459999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>-1.1999999999999993</v>
       </c>
       <c r="B257">
-        <v>1.034</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -2405,7 +2405,7 @@
         <v>-1.1500000000000004</v>
       </c>
       <c r="B258">
-        <v>1.032</v>
+        <v>2.0339999999999998</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -2413,7 +2413,7 @@
         <v>-1.0999999999999996</v>
       </c>
       <c r="B259">
-        <v>1.03</v>
+        <v>2.028</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
         <v>-1.0500000000000007</v>
       </c>
       <c r="B260">
-        <v>1.0279999999999998</v>
+        <v>2.024</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -2429,7 +2429,7 @@
         <v>-1</v>
       </c>
       <c r="B261">
-        <v>1.026</v>
+        <v>2.0179999999999998</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -2437,7 +2437,7 @@
         <v>-0.94999999999999929</v>
       </c>
       <c r="B262">
-        <v>1.022</v>
+        <v>2.0119999999999996</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -2445,7 +2445,7 @@
         <v>-0.90000000000000036</v>
       </c>
       <c r="B263">
-        <v>1.02</v>
+        <v>2.0059999999999998</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>-0.84999999999999964</v>
       </c>
       <c r="B264">
-        <v>1.0179999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,7 +2461,7 @@
         <v>-0.80000000000000071</v>
       </c>
       <c r="B265">
-        <v>1.016</v>
+        <v>1.994</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>-0.75</v>
       </c>
       <c r="B266">
-        <v>1.014</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>-0.69999999999999929</v>
       </c>
       <c r="B267">
-        <v>1.01</v>
+        <v>1.984</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
         <v>-0.65000000000000036</v>
       </c>
       <c r="B268">
-        <v>1.0079999999999998</v>
+        <v>1.978</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,7 @@
         <v>-0.59999999999999964</v>
       </c>
       <c r="B269">
-        <v>1.006</v>
+        <v>1.9719999999999998</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,7 +2501,7 @@
         <v>-0.55000000000000071</v>
       </c>
       <c r="B270">
-        <v>1.004</v>
+        <v>1.9659999999999997</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2509,7 @@
         <v>-0.5</v>
       </c>
       <c r="B271">
-        <v>1.002</v>
+        <v>1.9600000000000002</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -2517,7 +2517,7 @@
         <v>-0.44999999999999929</v>
       </c>
       <c r="B272">
-        <v>0.99799999999999978</v>
+        <v>1.9559999999999997</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -2525,7 +2525,7 @@
         <v>-0.40000000000000036</v>
       </c>
       <c r="B273">
-        <v>0.99599999999999989</v>
+        <v>1.9500000000000002</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>-0.34999999999999964</v>
       </c>
       <c r="B274">
-        <v>0.99399999999999988</v>
+        <v>1.944</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -2541,7 +2541,7 @@
         <v>-0.30000000000000071</v>
       </c>
       <c r="B275">
-        <v>0.99199999999999999</v>
+        <v>1.9379999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -2549,7 +2549,7 @@
         <v>-0.25</v>
       </c>
       <c r="B276">
-        <v>0.98999999999999988</v>
+        <v>1.9319999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -2557,7 +2557,7 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="B277">
-        <v>0.98599999999999999</v>
+        <v>1.9279999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>-0.15000000000000036</v>
       </c>
       <c r="B278">
-        <v>0.98399999999999987</v>
+        <v>1.9219999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -2573,7 +2573,7 @@
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="B279">
-        <v>0.98199999999999998</v>
+        <v>1.9159999999999997</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="B280">
-        <v>0.97999999999999987</v>
+        <v>1.9100000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>0.97799999999999987</v>
+        <v>1.9039999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="B282">
-        <v>0.97399999999999987</v>
+        <v>1.8979999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -2605,7 +2605,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="B283">
-        <v>0.97199999999999998</v>
+        <v>1.8939999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -2613,7 +2613,7 @@
         <v>0.15000000000000036</v>
       </c>
       <c r="B284">
-        <v>0.96999999999999986</v>
+        <v>1.8879999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -2621,7 +2621,7 @@
         <v>0.19999999999999929</v>
       </c>
       <c r="B285">
-        <v>0.96799999999999997</v>
+        <v>1.8819999999999999</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -2629,7 +2629,7 @@
         <v>0.25</v>
       </c>
       <c r="B286">
-        <v>0.96599999999999997</v>
+        <v>1.8759999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -2637,7 +2637,7 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="B287">
-        <v>0.96199999999999997</v>
+        <v>1.8699999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -2645,7 +2645,7 @@
         <v>0.34999999999999964</v>
       </c>
       <c r="B288">
-        <v>0.95999999999999985</v>
+        <v>1.8659999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="B289">
-        <v>0.95799999999999996</v>
+        <v>1.8599999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -2661,7 +2661,7 @@
         <v>0.44999999999999929</v>
       </c>
       <c r="B290">
-        <v>0.95599999999999996</v>
+        <v>1.8540000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>0.5</v>
       </c>
       <c r="B291">
-        <v>0.95399999999999985</v>
+        <v>1.8479999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>0.55000000000000071</v>
       </c>
       <c r="B292">
-        <v>0.95199999999999996</v>
+        <v>1.8420000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -2685,7 +2685,7 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="B293">
-        <v>0.94799999999999995</v>
+        <v>1.8379999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>0.65000000000000036</v>
       </c>
       <c r="B294">
-        <v>0.94599999999999995</v>
+        <v>1.8320000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -2701,7 +2701,7 @@
         <v>0.69999999999999929</v>
       </c>
       <c r="B295">
-        <v>0.94399999999999995</v>
+        <v>1.8260000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -2709,7 +2709,7 @@
         <v>0.75</v>
       </c>
       <c r="B296">
-        <v>0.94199999999999995</v>
+        <v>1.8199999999999998</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -2717,7 +2717,7 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="B297">
-        <v>0.93999999999999984</v>
+        <v>1.8160000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -2725,7 +2725,7 @@
         <v>0.84999999999999964</v>
       </c>
       <c r="B298">
-        <v>0.93599999999999994</v>
+        <v>1.8099999999999998</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
         <v>0.90000000000000036</v>
       </c>
       <c r="B299">
-        <v>0.93399999999999994</v>
+        <v>1.804</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -2741,7 +2741,7 @@
         <v>0.94999999999999929</v>
       </c>
       <c r="B300">
-        <v>0.93199999999999994</v>
+        <v>1.7979999999999998</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="B301">
-        <v>0.92999999999999983</v>
+        <v>1.792</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -2757,7 +2757,7 @@
         <v>1.0500000000000007</v>
       </c>
       <c r="B302">
-        <v>0.92799999999999994</v>
+        <v>1.788</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
         <v>1.0999999999999996</v>
       </c>
       <c r="B303">
-        <v>0.92599999999999993</v>
+        <v>1.782</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
         <v>1.1500000000000004</v>
       </c>
       <c r="B304">
-        <v>0.92199999999999993</v>
+        <v>1.776</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -2781,7 +2781,7 @@
         <v>1.1999999999999993</v>
       </c>
       <c r="B305">
-        <v>0.91999999999999993</v>
+        <v>1.7699999999999998</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
         <v>1.25</v>
       </c>
       <c r="B306">
-        <v>0.91799999999999993</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
         <v>1.3000000000000007</v>
       </c>
       <c r="B307">
-        <v>0.91599999999999993</v>
+        <v>1.7599999999999998</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
         <v>1.3499999999999996</v>
       </c>
       <c r="B308">
-        <v>0.91399999999999992</v>
+        <v>1.754</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="B309">
-        <v>0.90999999999999992</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>1.4499999999999993</v>
       </c>
       <c r="B310">
-        <v>0.90799999999999992</v>
+        <v>1.742</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
         <v>1.5</v>
       </c>
       <c r="B311">
-        <v>0.90599999999999992</v>
+        <v>1.738</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
         <v>1.5500000000000007</v>
       </c>
       <c r="B312">
-        <v>0.90399999999999991</v>
+        <v>1.732</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
         <v>1.5999999999999996</v>
       </c>
       <c r="B313">
-        <v>0.90199999999999991</v>
+        <v>1.726</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
         <v>1.6500000000000004</v>
       </c>
       <c r="B314">
-        <v>0.89999999999999991</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
         <v>1.6999999999999993</v>
       </c>
       <c r="B315">
-        <v>0.89599999999999991</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -2869,7 +2869,7 @@
         <v>1.75</v>
       </c>
       <c r="B316">
-        <v>0.89399999999999991</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -2877,7 +2877,7 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="B317">
-        <v>0.8919999999999999</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -2885,7 +2885,7 @@
         <v>1.8499999999999996</v>
       </c>
       <c r="B318">
-        <v>0.8899999999999999</v>
+        <v>1.698</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
         <v>1.9000000000000004</v>
       </c>
       <c r="B319">
-        <v>0.8879999999999999</v>
+        <v>1.6919999999999999</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,7 +2901,7 @@
         <v>1.9499999999999993</v>
       </c>
       <c r="B320">
-        <v>0.88600000000000001</v>
+        <v>1.6879999999999999</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="B321">
-        <v>0.8819999999999999</v>
+        <v>1.6819999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -2917,7 +2917,7 @@
         <v>2.0500000000000007</v>
       </c>
       <c r="B322">
-        <v>0.87999999999999989</v>
+        <v>1.6759999999999999</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -2925,7 +2925,7 @@
         <v>2.1000000000000014</v>
       </c>
       <c r="B323">
-        <v>0.87799999999999989</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
         <v>2.1499999999999986</v>
       </c>
       <c r="B324">
-        <v>0.876</v>
+        <v>1.6659999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -2941,7 +2941,7 @@
         <v>2.1999999999999993</v>
       </c>
       <c r="B325">
-        <v>0.87399999999999989</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>2.25</v>
       </c>
       <c r="B326">
-        <v>0.87199999999999989</v>
+        <v>1.6539999999999999</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,7 +2957,7 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="B327">
-        <v>0.86799999999999988</v>
+        <v>1.6479999999999999</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +2965,7 @@
         <v>2.3500000000000014</v>
       </c>
       <c r="B328">
-        <v>0.86599999999999999</v>
+        <v>1.6439999999999999</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>2.3999999999999986</v>
       </c>
       <c r="B329">
-        <v>0.86399999999999988</v>
+        <v>1.6379999999999999</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
         <v>2.4499999999999993</v>
       </c>
       <c r="B330">
-        <v>0.86199999999999999</v>
+        <v>1.6320000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>2.5</v>
       </c>
       <c r="B331">
-        <v>0.85999999999999988</v>
+        <v>1.6259999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
         <v>2.5500000000000007</v>
       </c>
       <c r="B332">
-        <v>0.85799999999999987</v>
+        <v>1.6220000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
         <v>2.6000000000000014</v>
       </c>
       <c r="B333">
-        <v>0.85399999999999987</v>
+        <v>1.6159999999999999</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -3013,7 +3013,7 @@
         <v>2.6499999999999986</v>
       </c>
       <c r="B334">
-        <v>0.85199999999999998</v>
+        <v>1.6099999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -3021,7 +3021,7 @@
         <v>2.6999999999999993</v>
       </c>
       <c r="B335">
-        <v>0.84999999999999987</v>
+        <v>1.6040000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -3029,7 +3029,7 @@
         <v>2.75</v>
       </c>
       <c r="B336">
-        <v>0.84799999999999986</v>
+        <v>1.5999999999999999</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -3037,7 +3037,7 @@
         <v>2.8000000000000007</v>
       </c>
       <c r="B337">
-        <v>0.84599999999999997</v>
+        <v>1.5940000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -3045,7 +3045,7 @@
         <v>2.8500000000000014</v>
       </c>
       <c r="B338">
-        <v>0.84399999999999986</v>
+        <v>1.5879999999999999</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -3053,7 +3053,7 @@
         <v>2.8999999999999986</v>
       </c>
       <c r="B339">
-        <v>0.83999999999999986</v>
+        <v>1.5820000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -3061,7 +3061,7 @@
         <v>2.9499999999999993</v>
       </c>
       <c r="B340">
-        <v>0.83799999999999997</v>
+        <v>1.5779999999999998</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -3069,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="B341">
-        <v>0.83599999999999997</v>
+        <v>1.5720000000000001</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -3077,7 +3077,7 @@
         <v>3.0500000000000007</v>
       </c>
       <c r="B342">
-        <v>0.83399999999999985</v>
+        <v>1.5660000000000001</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>3.1000000000000014</v>
       </c>
       <c r="B343">
-        <v>0.83199999999999996</v>
+        <v>1.5599999999999998</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
         <v>3.1499999999999986</v>
       </c>
       <c r="B344">
-        <v>0.82999999999999985</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -3101,7 +3101,7 @@
         <v>3.1999999999999993</v>
       </c>
       <c r="B345">
-        <v>0.82599999999999996</v>
+        <v>1.5499999999999998</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
         <v>3.25</v>
       </c>
       <c r="B346">
-        <v>0.82399999999999984</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="B347">
-        <v>0.82199999999999995</v>
+        <v>1.538</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -3125,7 +3125,7 @@
         <v>3.3500000000000014</v>
       </c>
       <c r="B348">
-        <v>0.81999999999999984</v>
+        <v>1.534</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -3133,7 +3133,7 @@
         <v>3.3999999999999986</v>
       </c>
       <c r="B349">
-        <v>0.81799999999999995</v>
+        <v>1.528</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -3141,7 +3141,7 @@
         <v>3.4499999999999993</v>
       </c>
       <c r="B350">
-        <v>0.81599999999999995</v>
+        <v>1.522</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>3.5</v>
       </c>
       <c r="B351">
-        <v>0.81199999999999994</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -3157,7 +3157,7 @@
         <v>3.5500000000000007</v>
       </c>
       <c r="B352">
-        <v>0.80999999999999983</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>3.6000000000000014</v>
       </c>
       <c r="B353">
-        <v>0.80799999999999994</v>
+        <v>1.506</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -3173,7 +3173,7 @@
         <v>3.6499999999999986</v>
       </c>
       <c r="B354">
-        <v>0.80599999999999994</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -3181,7 +3181,7 @@
         <v>3.6999999999999993</v>
       </c>
       <c r="B355">
-        <v>0.80399999999999994</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -3189,7 +3189,7 @@
         <v>3.75</v>
       </c>
       <c r="B356">
-        <v>0.80199999999999994</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="B357">
-        <v>0.79999999999999993</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -3205,7 +3205,7 @@
         <v>3.8500000000000014</v>
       </c>
       <c r="B358">
-        <v>0.79599999999999993</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -3213,7 +3213,7 @@
         <v>3.8999999999999986</v>
       </c>
       <c r="B359">
-        <v>0.79399999999999993</v>
+        <v>1.474</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -3221,7 +3221,7 @@
         <v>3.9499999999999993</v>
       </c>
       <c r="B360">
-        <v>0.79199999999999993</v>
+        <v>1.468</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -3229,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="B361">
-        <v>0.78999999999999992</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -3237,7 +3237,7 @@
         <v>4.0500000000000007</v>
       </c>
       <c r="B362">
-        <v>0.78799999999999992</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -3245,7 +3245,7 @@
         <v>4.1000000000000014</v>
       </c>
       <c r="B363">
-        <v>0.78599999999999992</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>4.1499999999999986</v>
       </c>
       <c r="B364">
-        <v>0.78199999999999992</v>
+        <v>1.446</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -3261,7 +3261,7 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="B365">
-        <v>0.77999999999999992</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -3269,7 +3269,7 @@
         <v>4.25</v>
       </c>
       <c r="B366">
-        <v>0.77799999999999991</v>
+        <v>1.4359999999999999</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -3277,7 +3277,7 @@
         <v>4.3000000000000007</v>
       </c>
       <c r="B367">
-        <v>0.77599999999999991</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -3285,7 +3285,7 @@
         <v>4.3500000000000014</v>
       </c>
       <c r="B368">
-        <v>0.77399999999999991</v>
+        <v>1.4239999999999999</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -3293,7 +3293,7 @@
         <v>4.3999999999999986</v>
       </c>
       <c r="B369">
-        <v>0.77199999999999991</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -3301,7 +3301,7 @@
         <v>4.4499999999999993</v>
       </c>
       <c r="B370">
-        <v>0.7679999999999999</v>
+        <v>1.4139999999999999</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -3309,7 +3309,7 @@
         <v>4.5</v>
       </c>
       <c r="B371">
-        <v>0.7659999999999999</v>
+        <v>1.4079999999999999</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -3317,7 +3317,7 @@
         <v>4.5500000000000007</v>
       </c>
       <c r="B372">
-        <v>0.7639999999999999</v>
+        <v>1.4020000000000001</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -3325,7 +3325,7 @@
         <v>4.6000000000000014</v>
       </c>
       <c r="B373">
-        <v>0.7619999999999999</v>
+        <v>1.3979999999999999</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -3333,7 +3333,7 @@
         <v>4.6499999999999986</v>
       </c>
       <c r="B374">
-        <v>0.7599999999999999</v>
+        <v>1.3920000000000001</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -3341,7 +3341,7 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="B375">
-        <v>0.7579999999999999</v>
+        <v>1.3859999999999999</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -3349,7 +3349,7 @@
         <v>4.75</v>
       </c>
       <c r="B376">
-        <v>0.75600000000000001</v>
+        <v>1.3820000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -3357,7 +3357,7 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="B377">
-        <v>0.75199999999999989</v>
+        <v>1.3759999999999999</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -3365,7 +3365,7 @@
         <v>4.8500000000000014</v>
       </c>
       <c r="B378">
-        <v>0.74999999999999989</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -3373,7 +3373,7 @@
         <v>4.8999999999999986</v>
       </c>
       <c r="B379">
-        <v>0.74799999999999989</v>
+        <v>1.3640000000000001</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -3381,7 +3381,7 @@
         <v>4.9499999999999993</v>
       </c>
       <c r="B380">
-        <v>0.746</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -3389,7 +3389,7 @@
         <v>5</v>
       </c>
       <c r="B381">
-        <v>0.74399999999999988</v>
+        <v>1.3540000000000001</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>5.0500000000000007</v>
       </c>
       <c r="B382">
-        <v>0.74199999999999999</v>
+        <v>1.3479999999999999</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -3405,7 +3405,7 @@
         <v>5.1000000000000014</v>
       </c>
       <c r="B383">
-        <v>0.74</v>
+        <v>1.3440000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -3413,7 +3413,7 @@
         <v>5.1499999999999986</v>
       </c>
       <c r="B384">
-        <v>0.73599999999999999</v>
+        <v>1.3379999999999999</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -3421,7 +3421,7 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="B385">
-        <v>0.73399999999999987</v>
+        <v>1.3320000000000001</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -3429,7 +3429,7 @@
         <v>5.25</v>
       </c>
       <c r="B386">
-        <v>0.73199999999999998</v>
+        <v>1.3260000000000001</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>5.3000000000000007</v>
       </c>
       <c r="B387">
-        <v>0.73</v>
+        <v>1.3220000000000001</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -3445,7 +3445,7 @@
         <v>5.3500000000000014</v>
       </c>
       <c r="B388">
-        <v>0.72799999999999987</v>
+        <v>1.3160000000000001</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -3453,7 +3453,7 @@
         <v>5.3999999999999986</v>
       </c>
       <c r="B389">
-        <v>0.72599999999999998</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
         <v>5.4499999999999993</v>
       </c>
       <c r="B390">
-        <v>0.72199999999999998</v>
+        <v>1.306</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -3469,7 +3469,7 @@
         <v>5.5</v>
       </c>
       <c r="B391">
-        <v>0.72</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -3477,7 +3477,7 @@
         <v>5.5500000000000007</v>
       </c>
       <c r="B392">
-        <v>0.71799999999999997</v>
+        <v>1.294</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -3485,7 +3485,7 @@
         <v>5.6000000000000014</v>
       </c>
       <c r="B393">
-        <v>0.71599999999999997</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -3493,7 +3493,7 @@
         <v>5.6499999999999986</v>
       </c>
       <c r="B394">
-        <v>0.71399999999999986</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -3501,7 +3501,7 @@
         <v>5.6999999999999993</v>
       </c>
       <c r="B395">
-        <v>0.71199999999999997</v>
+        <v>1.278</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -3509,7 +3509,7 @@
         <v>5.75</v>
       </c>
       <c r="B396">
-        <v>0.71</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -3517,7 +3517,7 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="B397">
-        <v>0.70599999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
         <v>5.8500000000000014</v>
       </c>
       <c r="B398">
-        <v>0.70399999999999985</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -3533,7 +3533,7 @@
         <v>5.8999999999999986</v>
       </c>
       <c r="B399">
-        <v>0.70199999999999996</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -3541,7 +3541,7 @@
         <v>5.9499999999999993</v>
       </c>
       <c r="B400">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -3549,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="B401">
-        <v>0.69799999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
         <v>6.0500000000000007</v>
       </c>
       <c r="B402">
-        <v>0.69599999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -3565,7 +3565,7 @@
         <v>6.1000000000000014</v>
       </c>
       <c r="B403">
-        <v>0.69399999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -3573,7 +3573,7 @@
         <v>6.1499999999999986</v>
       </c>
       <c r="B404">
-        <v>0.69</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -3581,7 +3581,7 @@
         <v>6.1999999999999993</v>
       </c>
       <c r="B405">
-        <v>0.68799999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -3589,7 +3589,7 @@
         <v>6.25</v>
       </c>
       <c r="B406">
-        <v>0.68599999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -3597,7 +3597,7 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="B407">
-        <v>0.68399999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -3605,7 +3605,7 @@
         <v>6.3500000000000014</v>
       </c>
       <c r="B408">
-        <v>0.68199999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -3613,7 +3613,7 @@
         <v>6.3999999999999986</v>
       </c>
       <c r="B409">
-        <v>0.67999999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -3621,7 +3621,7 @@
         <v>6.4499999999999993</v>
       </c>
       <c r="B410">
-        <v>0.67799999999999994</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -3629,7 +3629,7 @@
         <v>6.5</v>
       </c>
       <c r="B411">
-        <v>0.67399999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -3637,7 +3637,7 @@
         <v>6.5500000000000007</v>
       </c>
       <c r="B412">
-        <v>0.67199999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -3645,7 +3645,7 @@
         <v>6.6000000000000014</v>
       </c>
       <c r="B413">
-        <v>0.66999999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -3653,7 +3653,7 @@
         <v>6.6499999999999986</v>
       </c>
       <c r="B414">
-        <v>0.66799999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>6.6999999999999993</v>
       </c>
       <c r="B415">
-        <v>0.66599999999999993</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
         <v>6.75</v>
       </c>
       <c r="B416">
-        <v>0.66399999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -3677,7 +3677,7 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="B417">
-        <v>0.66199999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -3685,7 +3685,7 @@
         <v>6.8500000000000014</v>
       </c>
       <c r="B418">
-        <v>0.65799999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>6.8999999999999986</v>
       </c>
       <c r="B419">
-        <v>0.65599999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
         <v>6.9499999999999993</v>
       </c>
       <c r="B420">
-        <v>0.65399999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -3709,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>0.65199999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -3717,7 +3717,7 @@
         <v>7.0500000000000007</v>
       </c>
       <c r="B422">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -3725,7 +3725,7 @@
         <v>7.1000000000000014</v>
       </c>
       <c r="B423">
-        <v>0.64799999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -3733,7 +3733,7 @@
         <v>7.1499999999999986</v>
       </c>
       <c r="B424">
-        <v>0.64599999999999991</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="B425">
-        <v>0.6419999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -3749,7 +3749,7 @@
         <v>7.25</v>
       </c>
       <c r="B426">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -3757,7 +3757,7 @@
         <v>7.3000000000000007</v>
       </c>
       <c r="B427">
-        <v>0.6379999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -3765,7 +3765,7 @@
         <v>7.3500000000000014</v>
       </c>
       <c r="B428">
-        <v>0.63600000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -3773,7 +3773,7 @@
         <v>7.3999999999999986</v>
       </c>
       <c r="B429">
-        <v>0.6339999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -3781,7 +3781,7 @@
         <v>7.4499999999999993</v>
       </c>
       <c r="B430">
-        <v>0.6319999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -3789,7 +3789,7 @@
         <v>7.5</v>
       </c>
       <c r="B431">
-        <v>0.63</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -3797,7 +3797,7 @@
         <v>7.5500000000000007</v>
       </c>
       <c r="B432">
-        <v>0.626</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -3805,7 +3805,7 @@
         <v>7.6000000000000014</v>
       </c>
       <c r="B433">
-        <v>0.62399999999999989</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>7.6499999999999986</v>
       </c>
       <c r="B434">
-        <v>0.62199999999999989</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -3821,7 +3821,7 @@
         <v>7.6999999999999993</v>
       </c>
       <c r="B435">
-        <v>0.62</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
         <v>7.75</v>
       </c>
       <c r="B436">
-        <v>0.61799999999999988</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -3837,7 +3837,7 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="B437">
-        <v>0.61599999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
         <v>7.8500000000000014</v>
       </c>
       <c r="B438">
-        <v>0.61399999999999988</v>
+        <v>1.0479999999999998</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -3853,7 +3853,7 @@
         <v>7.8999999999999986</v>
       </c>
       <c r="B439">
-        <v>0.61199999999999999</v>
+        <v>1.042</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -3861,7 +3861,7 @@
         <v>7.9499999999999993</v>
       </c>
       <c r="B440">
-        <v>0.60799999999999987</v>
+        <v>1.0359999999999998</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -3869,7 +3869,7 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>0.60599999999999998</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -3877,7 +3877,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="B442">
-        <v>0.60399999999999987</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -3885,7 +3885,7 @@
         <v>8.1000000000000014</v>
       </c>
       <c r="B443">
-        <v>0.60199999999999998</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -3893,7 +3893,7 @@
         <v>8.1499999999999986</v>
       </c>
       <c r="B444">
-        <v>0.6</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -3901,7 +3901,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B445">
-        <v>0.59799999999999998</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -3909,7 +3909,7 @@
         <v>8.25</v>
       </c>
       <c r="B446">
-        <v>0.59599999999999997</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -3917,7 +3917,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B447">
-        <v>0.59199999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -3925,7 +3925,7 @@
         <v>8.3500000000000014</v>
       </c>
       <c r="B448">
-        <v>0.59</v>
+        <v>0.99399999999999988</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -3933,7 +3933,7 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="B449">
-        <v>0.58799999999999997</v>
+        <v>0.98799999999999988</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -3941,7 +3941,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="B450">
-        <v>0.58599999999999997</v>
+        <v>0.98399999999999987</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -3949,7 +3949,7 @@
         <v>8.5</v>
       </c>
       <c r="B451">
-        <v>0.58399999999999996</v>
+        <v>0.97799999999999987</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -3957,7 +3957,7 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="B452">
-        <v>0.58199999999999996</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -3965,7 +3965,7 @@
         <v>8.6000000000000014</v>
       </c>
       <c r="B453">
-        <v>0.57999999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -3973,7 +3973,7 @@
         <v>8.6499999999999986</v>
       </c>
       <c r="B454">
-        <v>0.57599999999999996</v>
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -3981,7 +3981,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B455">
-        <v>0.57399999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
         <v>8.75</v>
       </c>
       <c r="B456">
-        <v>0.57199999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -3997,7 +3997,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B457">
-        <v>0.56999999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -4005,7 +4005,7 @@
         <v>8.8500000000000014</v>
       </c>
       <c r="B458">
-        <v>0.56799999999999995</v>
+        <v>0.93999999999999984</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -4013,7 +4013,7 @@
         <v>8.8999999999999986</v>
       </c>
       <c r="B459">
-        <v>0.56599999999999995</v>
+        <v>0.93599999999999994</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -4021,7 +4021,7 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="B460">
-        <v>0.56399999999999995</v>
+        <v>0.92999999999999983</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -4029,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="B461">
-        <v>0.56000000000000005</v>
+        <v>0.92399999999999993</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -4037,7 +4037,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="B462">
-        <v>0.55799999999999994</v>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -4045,7 +4045,7 @@
         <v>9.1000000000000014</v>
       </c>
       <c r="B463">
-        <v>0.55599999999999994</v>
+        <v>0.91399999999999992</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -4053,7 +4053,7 @@
         <v>9.1499999999999986</v>
       </c>
       <c r="B464">
-        <v>0.55399999999999994</v>
+        <v>0.90799999999999992</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -4061,7 +4061,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B465">
-        <v>0.55199999999999994</v>
+        <v>0.90399999999999991</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
         <v>9.25</v>
       </c>
       <c r="B466">
-        <v>0.55000000000000004</v>
+        <v>0.89799999999999991</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -4077,7 +4077,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B467">
-        <v>0.54799999999999993</v>
+        <v>0.8919999999999999</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -4085,7 +4085,7 @@
         <v>9.3500000000000014</v>
       </c>
       <c r="B468">
-        <v>0.54399999999999993</v>
+        <v>0.8879999999999999</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -4093,7 +4093,7 @@
         <v>9.3999999999999986</v>
       </c>
       <c r="B469">
-        <v>0.54199999999999993</v>
+        <v>0.8819999999999999</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -4101,7 +4101,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="B470">
-        <v>0.53999999999999992</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -4109,7 +4109,7 @@
         <v>9.5</v>
       </c>
       <c r="B471">
-        <v>0.53800000000000003</v>
+        <v>0.87199999999999989</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -4117,7 +4117,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="B472">
-        <v>0.53600000000000003</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -4125,7 +4125,7 @@
         <v>9.6000000000000014</v>
       </c>
       <c r="B473">
-        <v>0.53400000000000003</v>
+        <v>0.85999999999999988</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
         <v>9.6499999999999986</v>
       </c>
       <c r="B474">
-        <v>0.53199999999999992</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -4141,7 +4141,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B475">
-        <v>0.52800000000000002</v>
+        <v>0.84999999999999987</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -4149,7 +4149,7 @@
         <v>9.75</v>
       </c>
       <c r="B476">
-        <v>0.52600000000000002</v>
+        <v>0.84399999999999986</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -4157,7 +4157,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B477">
-        <v>0.52400000000000002</v>
+        <v>0.83999999999999986</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -4165,7 +4165,7 @@
         <v>9.8500000000000014</v>
       </c>
       <c r="B478">
-        <v>0.52200000000000002</v>
+        <v>0.83399999999999985</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -4173,7 +4173,7 @@
         <v>9.8999999999999986</v>
       </c>
       <c r="B479">
-        <v>0.51999999999999991</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -4181,7 +4181,7 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="B480">
-        <v>0.51800000000000002</v>
+        <v>0.82399999999999984</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -4189,7 +4189,7 @@
         <v>10</v>
       </c>
       <c r="B481">
-        <v>0.51600000000000001</v>
+        <v>0.81799999999999995</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -4197,7 +4197,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="B482">
-        <v>0.51200000000000001</v>
+        <v>0.81199999999999994</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -4205,7 +4205,7 @@
         <v>10.100000000000001</v>
       </c>
       <c r="B483">
-        <v>0.51</v>
+        <v>0.80799999999999994</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -4213,7 +4213,7 @@
         <v>10.149999999999999</v>
       </c>
       <c r="B484">
-        <v>0.50800000000000001</v>
+        <v>0.80199999999999994</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -4221,7 +4221,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B485">
-        <v>0.50600000000000001</v>
+        <v>0.79599999999999993</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
         <v>10.25</v>
       </c>
       <c r="B486">
-        <v>0.504</v>
+        <v>0.79199999999999993</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -4237,7 +4237,7 @@
         <v>10.3</v>
       </c>
       <c r="B487">
-        <v>0.502</v>
+        <v>0.78599999999999992</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -4245,7 +4245,7 @@
         <v>10.350000000000001</v>
       </c>
       <c r="B488">
-        <v>0.5</v>
+        <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -4253,7 +4253,7 @@
         <v>10.399999999999999</v>
       </c>
       <c r="B489">
-        <v>0.496</v>
+        <v>0.77599999999999991</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -4261,7 +4261,7 @@
         <v>10.45</v>
       </c>
       <c r="B490">
-        <v>0.49399999999999999</v>
+        <v>0.76999999999999991</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -4269,7 +4269,7 @@
         <v>10.5</v>
       </c>
       <c r="B491">
-        <v>0.49199999999999999</v>
+        <v>0.7639999999999999</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -4277,7 +4277,7 @@
         <v>10.55</v>
       </c>
       <c r="B492">
-        <v>0.49</v>
+        <v>0.7599999999999999</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -4285,7 +4285,7 @@
         <v>10.600000000000001</v>
       </c>
       <c r="B493">
-        <v>0.48799999999999999</v>
+        <v>0.75399999999999989</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -4293,7 +4293,7 @@
         <v>10.649999999999999</v>
       </c>
       <c r="B494">
-        <v>0.48599999999999999</v>
+        <v>0.74799999999999989</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -4301,7 +4301,7 @@
         <v>10.7</v>
       </c>
       <c r="B495">
-        <v>0.48399999999999999</v>
+        <v>0.74399999999999988</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
         <v>10.75</v>
       </c>
       <c r="B496">
-        <v>0.48</v>
+        <v>0.73799999999999988</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -4317,7 +4317,7 @@
         <v>10.8</v>
       </c>
       <c r="B497">
-        <v>0.47799999999999998</v>
+        <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -4325,7 +4325,7 @@
         <v>10.850000000000001</v>
       </c>
       <c r="B498">
-        <v>0.47599999999999998</v>
+        <v>0.72799999999999987</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -4333,7 +4333,7 @@
         <v>10.899999999999999</v>
       </c>
       <c r="B499">
-        <v>0.47399999999999998</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -4341,7 +4341,7 @@
         <v>10.95</v>
       </c>
       <c r="B500">
-        <v>0.47199999999999998</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -4349,7 +4349,7 @@
         <v>11</v>
       </c>
       <c r="B501">
-        <v>0.47</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -4357,7 +4357,7 @@
         <v>11.05</v>
       </c>
       <c r="B502">
-        <v>0.46599999999999997</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -4365,7 +4365,7 @@
         <v>11.100000000000001</v>
       </c>
       <c r="B503">
-        <v>0.46399999999999997</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -4373,7 +4373,7 @@
         <v>11.149999999999999</v>
       </c>
       <c r="B504">
-        <v>0.46199999999999997</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -4381,7 +4381,7 @@
         <v>11.2</v>
       </c>
       <c r="B505">
-        <v>0.45999999999999996</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -4389,7 +4389,7 @@
         <v>11.25</v>
       </c>
       <c r="B506">
-        <v>0.45799999999999996</v>
+        <v>0.68399999999999994</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -4397,7 +4397,7 @@
         <v>11.3</v>
       </c>
       <c r="B507">
-        <v>0.45599999999999996</v>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -4405,7 +4405,7 @@
         <v>11.350000000000001</v>
       </c>
       <c r="B508">
-        <v>0.45199999999999996</v>
+        <v>0.67399999999999993</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -4413,7 +4413,7 @@
         <v>11.399999999999999</v>
       </c>
       <c r="B509">
-        <v>0.44999999999999996</v>
+        <v>0.66799999999999993</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -4421,7 +4421,7 @@
         <v>11.45</v>
       </c>
       <c r="B510">
-        <v>0.44799999999999995</v>
+        <v>0.66199999999999992</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -4429,7 +4429,7 @@
         <v>11.5</v>
       </c>
       <c r="B511">
-        <v>0.44599999999999995</v>
+        <v>0.65799999999999992</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -4437,7 +4437,7 @@
         <v>11.55</v>
       </c>
       <c r="B512">
-        <v>0.44399999999999995</v>
+        <v>0.65199999999999991</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -4445,7 +4445,7 @@
         <v>11.600000000000001</v>
       </c>
       <c r="B513">
-        <v>0.44199999999999995</v>
+        <v>0.64599999999999991</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -4453,7 +4453,7 @@
         <v>11.649999999999999</v>
       </c>
       <c r="B514">
-        <v>0.43799999999999994</v>
+        <v>0.6419999999999999</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -4461,7 +4461,7 @@
         <v>11.7</v>
       </c>
       <c r="B515">
-        <v>0.43599999999999994</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -4469,7 +4469,7 @@
         <v>11.75</v>
       </c>
       <c r="B516">
-        <v>0.43399999999999994</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -4477,7 +4477,7 @@
         <v>11.8</v>
       </c>
       <c r="B517">
-        <v>0.43199999999999994</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -4485,7 +4485,7 @@
         <v>11.850000000000001</v>
       </c>
       <c r="B518">
-        <v>0.42999999999999994</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
         <v>11.899999999999999</v>
       </c>
       <c r="B519">
-        <v>0.42800000000000005</v>
+        <v>0.61399999999999988</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -4501,7 +4501,7 @@
         <v>11.95</v>
       </c>
       <c r="B520">
-        <v>0.42399999999999993</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -4509,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="B521">
-        <v>0.42199999999999993</v>
+        <v>0.60399999999999987</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -4517,7 +4517,7 @@
         <v>12.05</v>
       </c>
       <c r="B522">
-        <v>0.42000000000000004</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -4525,7 +4525,7 @@
         <v>12.100000000000001</v>
       </c>
       <c r="B523">
-        <v>0.41800000000000004</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -4533,7 +4533,7 @@
         <v>12.149999999999999</v>
       </c>
       <c r="B524">
-        <v>0.41600000000000004</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
         <v>12.2</v>
       </c>
       <c r="B525">
-        <v>0.41199999999999992</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -4549,7 +4549,7 @@
         <v>12.25</v>
       </c>
       <c r="B526">
-        <v>0.41000000000000003</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -4557,7 +4557,7 @@
         <v>12.3</v>
       </c>
       <c r="B527">
-        <v>0.40800000000000003</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -4565,7 +4565,7 @@
         <v>12.350000000000001</v>
       </c>
       <c r="B528">
-        <v>0.40600000000000003</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -4573,7 +4573,7 @@
         <v>12.399999999999999</v>
       </c>
       <c r="B529">
-        <v>0.40400000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -4581,7 +4581,7 @@
         <v>12.45</v>
       </c>
       <c r="B530">
-        <v>0.4</v>
+        <v>0.55399999999999994</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -4589,7 +4589,7 @@
         <v>12.5</v>
       </c>
       <c r="B531">
-        <v>0.39800000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -4597,7 +4597,7 @@
         <v>12.55</v>
       </c>
       <c r="B532">
-        <v>0.39600000000000002</v>
+        <v>0.54399999999999993</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -4605,7 +4605,7 @@
         <v>12.600000000000001</v>
       </c>
       <c r="B533">
-        <v>0.39400000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
         <v>12.649999999999999</v>
       </c>
       <c r="B534">
-        <v>0.39</v>
+        <v>0.53199999999999992</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -4621,7 +4621,7 @@
         <v>12.7</v>
       </c>
       <c r="B535">
-        <v>0.38800000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -4629,7 +4629,7 @@
         <v>12.75</v>
       </c>
       <c r="B536">
-        <v>0.38600000000000001</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -4637,7 +4637,7 @@
         <v>12.8</v>
       </c>
       <c r="B537">
-        <v>0.38400000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -4645,7 +4645,7 @@
         <v>12.850000000000001</v>
       </c>
       <c r="B538">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -4653,7 +4653,7 @@
         <v>12.899999999999999</v>
       </c>
       <c r="B539">
-        <v>0.378</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -4661,7 +4661,7 @@
         <v>12.95</v>
       </c>
       <c r="B540">
-        <v>0.376</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -4669,7 +4669,7 @@
         <v>13</v>
       </c>
       <c r="B541">
-        <v>0.374</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -4677,7 +4677,7 @@
         <v>13.05</v>
       </c>
       <c r="B542">
-        <v>0.37</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -4685,7 +4685,7 @@
         <v>13.100000000000001</v>
       </c>
       <c r="B543">
-        <v>0.36799999999999999</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -4693,7 +4693,7 @@
         <v>13.149999999999999</v>
       </c>
       <c r="B544">
-        <v>0.36599999999999999</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -4701,7 +4701,7 @@
         <v>13.2</v>
       </c>
       <c r="B545">
-        <v>0.36199999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -4709,7 +4709,7 @@
         <v>13.25</v>
       </c>
       <c r="B546">
-        <v>0.36</v>
+        <v>0.46599999999999997</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -4717,7 +4717,7 @@
         <v>13.3</v>
       </c>
       <c r="B547">
-        <v>0.35799999999999998</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -4725,7 +4725,7 @@
         <v>13.350000000000001</v>
       </c>
       <c r="B548">
-        <v>0.35399999999999998</v>
+        <v>0.45399999999999996</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -4733,7 +4733,7 @@
         <v>13.399999999999999</v>
       </c>
       <c r="B549">
-        <v>0.35199999999999998</v>
+        <v>0.44799999999999995</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -4741,7 +4741,7 @@
         <v>13.45</v>
       </c>
       <c r="B550">
-        <v>0.35</v>
+        <v>0.44399999999999995</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -4749,7 +4749,7 @@
         <v>13.5</v>
       </c>
       <c r="B551">
-        <v>0.34599999999999997</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -4757,7 +4757,7 @@
         <v>13.55</v>
       </c>
       <c r="B552">
-        <v>0.34399999999999997</v>
+        <v>0.43199999999999994</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -4765,7 +4765,7 @@
         <v>13.600000000000001</v>
       </c>
       <c r="B553">
-        <v>0.34199999999999997</v>
+        <v>0.42599999999999993</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -4773,7 +4773,7 @@
         <v>13.649999999999999</v>
       </c>
       <c r="B554">
-        <v>0.33799999999999997</v>
+        <v>0.42000000000000004</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -4781,7 +4781,7 @@
         <v>13.7</v>
       </c>
       <c r="B555">
-        <v>0.33599999999999997</v>
+        <v>0.41399999999999992</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
         <v>13.75</v>
       </c>
       <c r="B556">
-        <v>0.33199999999999996</v>
+        <v>0.40800000000000003</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -4797,7 +4797,7 @@
         <v>13.8</v>
       </c>
       <c r="B557">
-        <v>0.33</v>
+        <v>0.40199999999999991</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -4805,7 +4805,7 @@
         <v>13.850000000000001</v>
       </c>
       <c r="B558">
-        <v>0.32599999999999996</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -4813,7 +4813,7 @@
         <v>13.899999999999999</v>
       </c>
       <c r="B559">
-        <v>0.32199999999999995</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -4821,7 +4821,7 @@
         <v>13.95</v>
       </c>
       <c r="B560">
-        <v>0.31999999999999995</v>
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -4829,7 +4829,7 @@
         <v>14</v>
       </c>
       <c r="B561">
-        <v>0.31599999999999995</v>
+        <v>0.376</v>
       </c>
     </row>
   </sheetData>
